--- a/rhla_analysis/rhla1_3_exp_result/k5.xlsx
+++ b/rhla_analysis/rhla1_3_exp_result/k5.xlsx
@@ -457,7 +457,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.01749819333698466</v>
+        <v>0.01749819333698475</v>
       </c>
       <c r="B2" t="n">
         <v>0.2830406746238023</v>
@@ -466,12 +466,12 @@
         <v>0.107843137254902</v>
       </c>
       <c r="D2" t="n">
-        <v>16.17542275210549</v>
+        <v>16.1754227521054</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.007227297603835893</v>
+        <v>0.007227297603835814</v>
       </c>
       <c r="B3" t="n">
         <v>0.2852709074562644</v>
@@ -480,12 +480,12 @@
         <v>0.1027280477408355</v>
       </c>
       <c r="D3" t="n">
-        <v>39.47131045286645</v>
+        <v>39.47131045286689</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.008911563505825643</v>
+        <v>0.008911563505825722</v>
       </c>
       <c r="B4" t="n">
         <v>0.2797328320332756</v>
@@ -494,12 +494,12 @@
         <v>0.1223358908780904</v>
       </c>
       <c r="D4" t="n">
-        <v>31.38987135651443</v>
+        <v>31.38987135651415</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.00983712048464141</v>
+        <v>0.00983712048464138</v>
       </c>
       <c r="B5" t="n">
         <v>0.2939796444905682</v>
@@ -508,12 +508,12 @@
         <v>0.1121057118499574</v>
       </c>
       <c r="D5" t="n">
-        <v>29.88472540816751</v>
+        <v>29.8847254081676</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.01712687981105091</v>
+        <v>0.0171268798110512</v>
       </c>
       <c r="B6" t="n">
         <v>0.2540075148127012</v>
@@ -522,12 +522,12 @@
         <v>0.1176470588235294</v>
       </c>
       <c r="D6" t="n">
-        <v>14.83092761874851</v>
+        <v>14.83092761874826</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.01952751172354363</v>
+        <v>0.01952751172354348</v>
       </c>
       <c r="B7" t="n">
         <v>0.2667939449432092</v>
@@ -536,12 +536,12 @@
         <v>0.1065643648763853</v>
       </c>
       <c r="D7" t="n">
-        <v>13.66246497353502</v>
+        <v>13.66246497353512</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.01690811447250033</v>
+        <v>0.01690811447250031</v>
       </c>
       <c r="B8" t="n">
         <v>0.2846394457433976</v>
@@ -550,12 +550,12 @@
         <v>0.09249786871270248</v>
       </c>
       <c r="D8" t="n">
-        <v>16.83448773701766</v>
+        <v>16.83448773701768</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.01207378477626876</v>
+        <v>0.01207378477626885</v>
       </c>
       <c r="B9" t="n">
         <v>0.3307224110383835</v>
@@ -564,12 +564,12 @@
         <v>0.1044330775788576</v>
       </c>
       <c r="D9" t="n">
-        <v>27.3917762463701</v>
+        <v>27.39177624636988</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.005476093126526056</v>
+        <v>0.005476093126526031</v>
       </c>
       <c r="B10" t="n">
         <v>0.3128472084710186</v>
@@ -578,12 +578,12 @@
         <v>0.1048593350383632</v>
       </c>
       <c r="D10" t="n">
-        <v>57.12963626487554</v>
+        <v>57.1296362648758</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.006318975179474792</v>
+        <v>0.006318975179474775</v>
       </c>
       <c r="B11" t="n">
         <v>0.2859484437290993</v>
@@ -592,7 +592,7 @@
         <v>0.1240409207161125</v>
       </c>
       <c r="D11" t="n">
-        <v>45.25234481976018</v>
+        <v>45.2523448197603</v>
       </c>
     </row>
   </sheetData>
